--- a/WebRoot/template/【模板】奖金配置.xlsx
+++ b/WebRoot/template/【模板】奖金配置.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1117,7 +1117,7 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F75">
-      <formula1>"库提奖金"</formula1>
+      <formula1>"库提奖金,其他奖金"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
